--- a/core/assets/levels/test_level1.xlsx
+++ b/core/assets/levels/test_level1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stsinwell/cs/MangoSnoopers/core/assets/levels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/Repos/MangoSnoopers/core/assets/levels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="440" windowWidth="29460" windowHeight="22300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Events</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>SAT Question</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
   </si>
 </sst>
 </file>
@@ -796,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1083,15 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">

--- a/core/assets/levels/test_level1.xlsx
+++ b/core/assets/levels/test_level1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/Repos/MangoSnoopers/core/assets/levels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stsinwell/cs/MangoSnoopers/core/assets/levels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="4680" yWindow="440" windowWidth="29460" windowHeight="22300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Events</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>SAT Question</t>
-  </si>
-  <si>
-    <t>Flamingo</t>
   </si>
 </sst>
 </file>
@@ -799,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1083,15 +1080,6 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">

--- a/core/assets/levels/test_level1.xlsx
+++ b/core/assets/levels/test_level1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Events</t>
   </si>
@@ -797,7 +797,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -852,9 +852,15 @@
       <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="6"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1225,9 +1231,6 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
